--- a/biology/Médecine/Solution_(pharmacie_galénique)/Solution_(pharmacie_galénique).xlsx
+++ b/biology/Médecine/Solution_(pharmacie_galénique)/Solution_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solution_(pharmacie_gal%C3%A9nique)</t>
+          <t>Solution_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pharmacie galénique et selon la Pharmacopée européenne, une solution est une forme galénique liquide utilisée pour l’administration d’au moins un principe actif de médicament par différentes voies d’administration. Le tableau suivant présente quelques exemples. 
  Portail de la pharmacie                     </t>
